--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>k</t>
   </si>
@@ -42,11 +42,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed number of most recent documents. We set this number to 2000; preliminary
-experiments showed that values between 1000 and
-3000 all yield very similar results. </t>
   </si>
   <si>
     <t>bucket max size</t>
@@ -87,17 +82,6 @@
     <t>If we assign a to an existing thread,
 we assign it to the same thread to which its nearest
 neighbor belongs.</t>
-  </si>
-  <si>
-    <t>threshold for tweets closeness
-If t is set very high, we will have few very big and broad threads, whereas setting
-t very low will result in many very specific and very
-small threads.</t>
-  </si>
-  <si>
-    <t>In our experiments, we set t = 0.5.
-We experimented with different values of t and found
-that for t ∈ [0.5,0.6] results are very much the same,</t>
   </si>
   <si>
     <t>Given k,
@@ -119,6 +103,35 @@
     <t>Rate of growth of a thread is measured by the
 number of tweets that belong to that thread in a window of 100,000 tweets, starting from the beginning
 of the thread.</t>
+  </si>
+  <si>
+    <t>entropy</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>1000-3000</t>
+  </si>
+  <si>
+    <t>&lt;3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastest growing? </t>
+  </si>
+  <si>
+    <t>entropy (&lt; 3.5) to the back of the list, while we order other threads by the number of unique users.
+A sign test showed this approach to be significantly better (p ≤ 0.01) than all of the previous ranking methods. Table 3 shows the effect of varying the entropy threshold at which threads are moved to the back of the list. We can see that adding information about entropy improves results regardless of the threshold we choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed number of most recent documents. We set this number to 2000; preliminary experiments showed that values between 1000 and 3000 all yield very similar results. </t>
+  </si>
+  <si>
+    <t>threshold for tweets closeness
+If t is set very high, we will have few very big and broad threads, whereas setting t very low will result in many very specific and very small threads.</t>
+  </si>
+  <si>
+    <t>In our experiments, we set t = 0.5. We experimented with different values of t and found that for t ∈ [0.5,0.6] results are very much the same</t>
   </si>
 </sst>
 </file>
@@ -459,24 +472,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:I37"/>
+  <dimension ref="D2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="89.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:7" ht="180" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -484,7 +497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -492,7 +505,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -501,7 +514,7 @@
         <v>1.0022595757618546E-2</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -510,7 +523,7 @@
         <v>0.98997740424238145</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -518,7 +531,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -527,66 +540,94 @@
         <v>159.77487646462919</v>
       </c>
     </row>
-    <row r="10" spans="5:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:7" ht="60" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I14" s="3" t="s">
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="6:6" ht="105" x14ac:dyDescent="0.25">
       <c r="F33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" ht="90" x14ac:dyDescent="0.25">
       <c r="F35" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" ht="120" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F36" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="F37" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:G36"/>
+  <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,46 +484,57 @@
     <col min="7" max="7" width="89.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:9" ht="180" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+        <f>POWER(G6,F3)</f>
+        <v>2.4999999999999981E-2</v>
+      </c>
+      <c r="I4">
+        <f>1-I3</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1">
         <f>POWER(F4,F3)</f>
-        <v>1.0022595757618546E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+        <v>1.4901161193847508E-21</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
-        <f>1-F5</f>
-        <v>0.98997740424238145</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <f>POWER(F6,1/F3)</f>
+        <v>0.75294736199952894</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -531,16 +542,16 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
-        <f>LOG(F7,F6)</f>
-        <v>159.77487646462919</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F8" t="e">
+        <f>LOG(F7,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>16</v>
       </c>
@@ -551,7 +562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>18</v>
       </c>
@@ -562,7 +573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>19</v>
       </c>
@@ -573,7 +584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>12</v>
       </c>
@@ -584,7 +595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>6</v>
       </c>
@@ -605,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="4:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" ht="45" x14ac:dyDescent="0.25">
       <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
@@ -632,5 +643,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>